--- a/trunk/6. Test/Sprint 2/Defect report.xlsx
+++ b/trunk/6. Test/Sprint 2/Defect report.xlsx
@@ -87,12 +87,51 @@
         </r>
       </text>
     </comment>
+    <comment ref="E15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Failed
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Failed</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
   <si>
     <t>Document Reviewer Information</t>
   </si>
@@ -161,9 +200,6 @@
   </si>
   <si>
     <t>Related Testcase ID</t>
-  </si>
-  <si>
-    <t>Defect report Sprint 1</t>
   </si>
   <si>
     <t>Priority 
@@ -231,73 +267,7 @@
     <t>DF.015</t>
   </si>
   <si>
-    <t>DF.016</t>
-  </si>
-  <si>
-    <t>DF.017</t>
-  </si>
-  <si>
-    <t>DF.018</t>
-  </si>
-  <si>
-    <t>DF.019</t>
-  </si>
-  <si>
-    <t>DF.020</t>
-  </si>
-  <si>
-    <t>DF.021</t>
-  </si>
-  <si>
-    <t>DF.022</t>
-  </si>
-  <si>
-    <t>DF.023</t>
-  </si>
-  <si>
     <t>Defect ID on VSO</t>
-  </si>
-  <si>
-    <t>DF.024</t>
-  </si>
-  <si>
-    <t>DF.025</t>
-  </si>
-  <si>
-    <t>DF.026</t>
-  </si>
-  <si>
-    <t>DF.027</t>
-  </si>
-  <si>
-    <t>DF.028</t>
-  </si>
-  <si>
-    <t>DF.029</t>
-  </si>
-  <si>
-    <t>DF.030</t>
-  </si>
-  <si>
-    <t>DF.031</t>
-  </si>
-  <si>
-    <t>DF.032</t>
-  </si>
-  <si>
-    <t>DF.033</t>
-  </si>
-  <si>
-    <t>DF.034</t>
-  </si>
-  <si>
-    <t>DF.035</t>
-  </si>
-  <si>
-    <t>DF.036</t>
-  </si>
-  <si>
-    <t>DF.037</t>
   </si>
   <si>
     <t>04.11.2014</t>
@@ -360,12 +330,203 @@
   <si>
     <t>Removed</t>
   </si>
+  <si>
+    <t>03.28.2014</t>
+  </si>
+  <si>
+    <t>03.03.2014</t>
+  </si>
+  <si>
+    <t>03.11.2014</t>
+  </si>
+  <si>
+    <t>03.12.2014</t>
+  </si>
+  <si>
+    <t>03.14.2014</t>
+  </si>
+  <si>
+    <t>03.15.2014</t>
+  </si>
+  <si>
+    <t>03.16.2014</t>
+  </si>
+  <si>
+    <t>Addition</t>
+  </si>
+  <si>
+    <t>Không bỏ chọn nhiều câu hỏi được khi đưa nhiều câu hỏi vào bộ từ điển</t>
+  </si>
+  <si>
+    <t>1. Chọn bộ từ điển
+2. Chọn danh sách có sẵn
+3. Chọn câu hỏi
+4. Chọn Đưa vào từ điển
+5. Xác nhận Đưa vào từ điển</t>
+  </si>
+  <si>
+    <t>Khi xóa nhiều câu hỏi, trang web xóa hết tất cả câu hỏi của danh sách</t>
+  </si>
+  <si>
+    <t>Khang Huynh</t>
+  </si>
+  <si>
+    <t>1. Chọn bộ từ điển
+2. Chọn danh sách đã xóa
+3. Chọn câu hỏi
+4. Chọn Xóa
+5. Xác nhận xóa</t>
+  </si>
+  <si>
+    <t>Không hiển thị thông tin chi tiết ở danh sách đã trả lời</t>
+  </si>
+  <si>
+    <t>1. Chọn danh sách đã trả lời
+2. Chọn một câu hỏi</t>
+  </si>
+  <si>
+    <t>04.10.2014</t>
+  </si>
+  <si>
+    <t>Chau Le</t>
+  </si>
+  <si>
+    <t>Lỗi khi nhập vào số thập phân ở chức năng điều chỉnh hiển thị danh sách câu hỏi chưa trả lời</t>
+  </si>
+  <si>
+    <t>Lỗi khi nhập vào số thập phân ở chức năng điều chỉnh hiển thị danh sách câu hỏi lưu tạm</t>
+  </si>
+  <si>
+    <t>Lỗi khi nhập vào số thập phân ở chức năng điều chỉnh hiển thị danh sách câu hỏi đã trả lời</t>
+  </si>
+  <si>
+    <t>Lỗi khi nhập vào số thập phân ở chức năng điều chỉnh hiển thị danh sách câu hỏi đã xóa</t>
+  </si>
+  <si>
+    <t>04.10.2015</t>
+  </si>
+  <si>
+    <t>04.10.2016</t>
+  </si>
+  <si>
+    <t>04.10.2017</t>
+  </si>
+  <si>
+    <t>1. Chọn danh sách chưa trả lời
+2. Chọn cấu hình
+3. Điền thông tin số câu hỏi hiển thị mỗi trang
+4. Điền thông tin số trang hiển thị tối đa
+5. Xác nhận</t>
+  </si>
+  <si>
+    <t>1. Chọn danh sách lưu tạm
+2. Chọn cấu hình
+3. Điền thông tin số câu hỏi hiển thị mỗi trang
+4. Điền thông tin số trang hiển thị tối đa
+5. Xác nhận</t>
+  </si>
+  <si>
+    <t>1. Chọn danh sách đã trả lời
+2. Chọn cấu hình
+3. Điền thông tin số câu hỏi hiển thị mỗi trang
+4. Điền thông tin số trang hiển thị tối đa
+5. Xác nhận</t>
+  </si>
+  <si>
+    <t>1. Chọn bộ từ điển
+2. Chọn danh sách hiện tại
+3. Chọn cấu hình
+4. Điền thông tin số câu hỏi hiển thị mỗi trang
+5. Điền thông tin số trang hiển thị tối đa
+6. Xác nhận</t>
+  </si>
+  <si>
+    <t>04.12.2014</t>
+  </si>
+  <si>
+    <t>Không hiển thị danh sách người dùng</t>
+  </si>
+  <si>
+    <t>1. Chọn cấu hình
+2. Chọn cấu hình người dùng</t>
+  </si>
+  <si>
+    <t>Đăng nhập tài khoản user vẫn hiển thị đầy đủ chức năng</t>
+  </si>
+  <si>
+    <t>1. Mở trang web
+2. Điền thông tin tài khoản
+3. Điền thông tin mật khẩu
+4. Đăng nhập</t>
+  </si>
+  <si>
+    <t>Username: clone02
+Password: 123456</t>
+  </si>
+  <si>
+    <t>Dao Khau</t>
+  </si>
+  <si>
+    <t>1. Chọn cấu hình
+2. Chọn cấu hình hệ thống
+3. Điền thông tin Driver
+4. Điền thông tin Url
+5. Điền thông tin Username
+6. Điền thông tin Password
+7. Xác nhận thay đổi</t>
+  </si>
+  <si>
+    <t>Xảy ra lỗi 500 khi nhập vào thông tin URL database</t>
+  </si>
+  <si>
+    <t>TC.03.1
+TC.04.1</t>
+  </si>
+  <si>
+    <t>TC.03.1
+TC.04.1
+TC.16.1
+TC.18.1</t>
+  </si>
+  <si>
+    <t>TC.19.1
+TC.20.1
+TC.21.1</t>
+  </si>
+  <si>
+    <t>TC.02.1</t>
+  </si>
+  <si>
+    <t>TC.26.1</t>
+  </si>
+  <si>
+    <t>TC.27.1</t>
+  </si>
+  <si>
+    <t>TC.28.1</t>
+  </si>
+  <si>
+    <t>TC.29.1</t>
+  </si>
+  <si>
+    <t>TC.35.1</t>
+  </si>
+  <si>
+    <t>TC.36.1
+TC.36.2</t>
+  </si>
+  <si>
+    <t>TC.37.1</t>
+  </si>
+  <si>
+    <t>Defect report Sprint 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +637,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -670,7 +837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -774,6 +941,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1124,7 +1300,7 @@
   <dimension ref="B3:F30"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F18" sqref="F18:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1236,59 +1412,109 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
+      <c r="B18" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="C18" s="18">
         <v>1</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
+      <c r="F19" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="20"/>
+      <c r="B20" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
+      <c r="F22" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="19"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="20"/>
+      <c r="B24" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="19"/>
@@ -1342,13 +1568,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,7 +1598,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -1393,10 +1619,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>15</v>
@@ -1405,13 +1631,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="H2" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>17</v>
@@ -1434,17 +1660,17 @@
     </row>
     <row r="3" spans="1:14" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="F3" s="10">
         <v>1</v>
@@ -1456,33 +1682,33 @@
         <v>3</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="31" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F4" s="10">
         <v>1</v>
@@ -1494,33 +1720,33 @@
         <v>4</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="31" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F5" s="10">
         <v>1</v>
@@ -1532,31 +1758,33 @@
         <v>2</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="31" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="E6" s="26" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
@@ -1568,232 +1796,440 @@
         <v>3</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="E7" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>6</v>
+      </c>
       <c r="I7" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="M7" s="9"/>
-      <c r="N7" s="31"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="C8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
+        <v>4</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="J8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="31"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>3</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="31"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-      <c r="N10" s="31"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="31"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="31"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="31"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="31"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N15" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="31"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>2</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="31"/>
+      <c r="N17" s="31" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1809,9 +2245,7 @@
       <c r="N18" s="31"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1827,9 +2261,7 @@
       <c r="N19" s="31"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1845,9 +2277,7 @@
       <c r="N20" s="31"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1863,9 +2293,7 @@
       <c r="N21" s="31"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1881,9 +2309,7 @@
       <c r="N22" s="31"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="28"/>
@@ -1899,9 +2325,7 @@
       <c r="N23" s="31"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="28"/>
@@ -1917,9 +2341,7 @@
       <c r="N24" s="31"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="28"/>
@@ -1935,9 +2357,7 @@
       <c r="N25" s="31"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="28"/>
@@ -1953,9 +2373,7 @@
       <c r="N26" s="31"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="28"/>
@@ -1971,9 +2389,7 @@
       <c r="N27" s="31"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="28"/>
@@ -1989,9 +2405,7 @@
       <c r="N28" s="31"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="28"/>
@@ -2007,9 +2421,7 @@
       <c r="N29" s="31"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="28"/>
@@ -2025,9 +2437,7 @@
       <c r="N30" s="31"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2043,9 +2453,7 @@
       <c r="N31" s="25"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2061,9 +2469,7 @@
       <c r="N32" s="25"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2079,9 +2485,7 @@
       <c r="N33" s="9"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>62</v>
-      </c>
+      <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2097,9 +2501,7 @@
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2115,9 +2517,7 @@
       <c r="N35" s="9"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2133,9 +2533,7 @@
       <c r="N36" s="9"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2151,9 +2549,7 @@
       <c r="N37" s="9"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -2169,9 +2565,7 @@
       <c r="N38" s="9"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -2187,19 +2581,49 @@
       <c r="N39" s="9"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:N2"/>
